--- a/src/test/resources/меню_автоматизация — копия.xlsx
+++ b/src/test/resources/меню_автоматизация — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macs0\Desktop\work\WABP_Tests\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF16C8-E61F-4E34-86EA-5E6DC4C908F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB82FA-2FA9-4259-9651-0CE2F02C43B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="900" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="3468" windowWidth="17280" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>31Э4</t>
   </si>
   <si>
-    <t>Просмотр ЛБО по распорядителям</t>
-  </si>
-  <si>
     <t>66Я000085</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Просмотр ЛБО по распорядителям55555555555</t>
+  </si>
+  <si>
+    <t>Просмотр ЛБО по распорядителям11111111111</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,16 +468,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
